--- a/DOM_Banner/output/dept_banner/Stephen Scholand_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Stephen Scholand_2023.xlsx
@@ -550,7 +550,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Historical reports of rabies first appeared during the 1700s in colonial descriptions from throughout the Americas, although the disease was present much earlier. Until the 1900s, European beliefs and enlightenment held clear sway over the region, as to the possible nature of the disease, its pathobiology, and its treatment, in both theory and practice. Gradually, throughout the twentieth century, virologists within North and South America revolutionized the field through substantial progress in electron microscopy, biochemistry, immunobiology, pathophysiology, vaccinology, and anti-viral therapeutics. Now, during the start of the twenty-first century, New World scientists continue to make major basic and applied contributions into the biology of rabies virus, its pathogenesis, and potential therapy.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2899084033", "https://openalex.org/W1794201046", "https://openalex.org/W2061882794", "https://openalex.org/W2025674972", "https://openalex.org/W2032868487", "https://openalex.org/W2363280392", "https://openalex.org/W2046021971", "https://openalex.org/W2002563971", "https://openalex.org/W2008682154", "https://openalex.org/W2085326592")</t>
+          <t>c("https://openalex.org/W2372878973", "https://openalex.org/W4390006636", "https://openalex.org/W2588368674", "https://openalex.org/W2091432666", "https://openalex.org/W4245916961", "https://openalex.org/W2293119325", "https://openalex.org/W2057653040", "https://openalex.org/W2902133625", "https://openalex.org/W2398313295", "https://openalex.org/W1447503586")</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Stephen Scholand_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Stephen Scholand_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,212 +360,119 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Drishya Kurup, Charles E. Rupprecht, Stephen J. Scholand, Catherine Yankowski, Matthias J. Schnell</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4366963257</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Glimpses into the Past: New World Contributions Towards Understanding the Basic Etiology, Pathobiology and Treatment of Rabies</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5028970162", "https://openalex.org/A5012181714", "https://openalex.org/A5020243647", "https://openalex.org/A5040458195", "https://openalex.org/A5061798289"), au_display_name = c("Drishya Kurup", "Charles E. Rupprecht", "Stephen J. Scholand", "Catherine Yankowski", "Matthias J. Schnell"), au_orcid = c("https://orcid.org/0000-0002-3959-7700", "https://orcid.org/0000-0002-8010-0743", "https://orcid.org/0000-0003-1196-6735", NA, "https://orcid.org/0000-0001-9040-9405"
-), author_position = c("first", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Thomas Jefferson University, Philadelphia, USA", "Auburn University, Auburn, USA", "College of Medicine, University of Arizona, Tucson, USA; Rabies Free World, Meriden, USA", "Thomas Jefferson University, Philadelphia, USA", "Thomas Jefferson University, Philadelphia, USA"), institution_id = c("https://openalex.org/I149251103", "https://openalex.org/I82497590", "https://openalex.org/I2801173597", "https://openalex.org/I149251103", 
-"https://openalex.org/I149251103"), institution_display_name = c("Thomas Jefferson University", "Auburn University", "Global Alliance for Rabies Control", "Thomas Jefferson University", "Thomas Jefferson University"), institution_ror = c("https://ror.org/00ysqcn41", "https://ror.org/02v80fc35", "https://ror.org/00s9d5e28", "https://ror.org/00ysqcn41", "https://ror.org/00ysqcn41"), institution_country_code = c("US", "US", "US", "US", "US"), institution_type = c("education", "education", "nonprofit", 
-"education", "education"), institution_lineage = c("https://openalex.org/I149251103", "https://openalex.org/I4210151215, https://openalex.org/I82497590", "https://openalex.org/I2801173597", "https://openalex.org/I149251103", "https://openalex.org/I149251103"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Historical reports of rabies first appeared during the 1700s in colonial descriptions from throughout the Americas, although the disease was present much earlier. Until the 1900s, European beliefs and enlightenment held clear sway over the region, as to the possible nature of the disease, its pathobiology, and its treatment, in both theory and practice. Gradually, throughout the twentieth century, virologists within North and South America revolutionized the field through substantial progress in electron microscopy, biochemistry, immunobiology, pathophysiology, vaccinology, and anti-viral therapeutics. Now, during the start of the twenty-first century, New World scientists continue to make major basic and applied contributions into the biology of rabies virus, its pathogenesis, and potential therapy.</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Fascinating life sciences</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fascinating life sciences</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210235389</t>
+          <t>https://doi.org/10.1007/978-3-031-25052-1_2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -575,317 +482,124 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2509-6753</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1007/978-3-031-25052-1_2</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4366963257</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4366963257", doi = "https://doi.org/10.1007/978-3-031-25052-1_2")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/978-3-031-25052-1_2</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>book-chapter</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W16127334", "https://openalex.org/W162115432", "https://openalex.org/W197344889", "https://openalex.org/W1500393054", "https://openalex.org/W1508555796", "https://openalex.org/W1508662140", "https://openalex.org/W1513603431", "https://openalex.org/W1547856012", "https://openalex.org/W1551222488", "https://openalex.org/W1794201046", "https://openalex.org/W1886819264", "https://openalex.org/W1890987582", "https://openalex.org/W1926302878", "https://openalex.org/W1972100085", 
-"https://openalex.org/W1972119594", "https://openalex.org/W1973895646", "https://openalex.org/W1981001889", "https://openalex.org/W1988037647", "https://openalex.org/W1993891921", "https://openalex.org/W1994048364", "https://openalex.org/W1998589813", "https://openalex.org/W1998741677", "https://openalex.org/W2001354631", "https://openalex.org/W2004315065", "https://openalex.org/W2005181859", "https://openalex.org/W2005230652", "https://openalex.org/W2005763141", "https://openalex.org/W2009001017", 
-"https://openalex.org/W2009282547", "https://openalex.org/W2009816701", "https://openalex.org/W2011371178", "https://openalex.org/W2014164228", "https://openalex.org/W2017811822", "https://openalex.org/W2020840622", "https://openalex.org/W2024115089", "https://openalex.org/W2027149644", "https://openalex.org/W2030288217", "https://openalex.org/W2032494219", "https://openalex.org/W2037626907", "https://openalex.org/W2042634703", "https://openalex.org/W2046800423", "https://openalex.org/W2049147275", 
-"https://openalex.org/W2049377813", "https://openalex.org/W2050042695", "https://openalex.org/W2056457746", "https://openalex.org/W2058837874", "https://openalex.org/W2059051837", "https://openalex.org/W2060960270", "https://openalex.org/W2063478723", "https://openalex.org/W2064223963", "https://openalex.org/W2068281782", "https://openalex.org/W2068573022", "https://openalex.org/W2070869308", "https://openalex.org/W2073443001", "https://openalex.org/W2081680282", "https://openalex.org/W2082660404", 
-"https://openalex.org/W2085206931", "https://openalex.org/W2085717212", "https://openalex.org/W2086060715", "https://openalex.org/W2101824976", "https://openalex.org/W2103952897", "https://openalex.org/W2105661914", "https://openalex.org/W2105774698", "https://openalex.org/W2114256073", "https://openalex.org/W2115130178", "https://openalex.org/W2116552786", "https://openalex.org/W2124654634", "https://openalex.org/W2125003430", "https://openalex.org/W2128005020", "https://openalex.org/W2147592004", 
-"https://openalex.org/W2165913884", "https://openalex.org/W2255008614", "https://openalex.org/W2293896209", "https://openalex.org/W2315231115", "https://openalex.org/W2326635763", "https://openalex.org/W2334579754", "https://openalex.org/W2412604471", "https://openalex.org/W2466067872", "https://openalex.org/W2594324308", "https://openalex.org/W2598367316", "https://openalex.org/W2659906701", "https://openalex.org/W2752565018", "https://openalex.org/W2767737382", "https://openalex.org/W2961795671", 
-"https://openalex.org/W3021250375", "https://openalex.org/W3087437038", "https://openalex.org/W3095247448", "https://openalex.org/W3108409087", "https://openalex.org/W3124182324", "https://openalex.org/W4231655996", "https://openalex.org/W4233289116", "https://openalex.org/W4237070782", "https://openalex.org/W4250651509")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2372878973", "https://openalex.org/W4390006636", "https://openalex.org/W2588368674", "https://openalex.org/W2091432666", "https://openalex.org/W4245916961", "https://openalex.org/W2293119325", "https://openalex.org/W2057653040", "https://openalex.org/W2902133625", "https://openalex.org/W2398313295", "https://openalex.org/W1447503586")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Suda Jaihow, Nonthapan Phasuk, Udomsak Narkkul, Wipawan C. Pensuksan, Stephen J. Scholand, Chuchard Punsawad</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388534156</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Maternal and Neonatal Outcomes of Pregnant Women with Abnormal 50 g Glucose Challenge Tests in Nakhon Si Thammarat, Thailand: A Retrospective Study</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5093231150", "https://openalex.org/A5064855360", "https://openalex.org/A5000484145", "https://openalex.org/A5029392291", "https://openalex.org/A5020243647", "https://openalex.org/A5068327707"), au_display_name = c("Suda Jaihow", "Nonthapan Phasuk", "Udomsak Narkkul", "Wipawan C. Pensuksan", "Stephen J. Scholand", "Chuchard Punsawad"), au_orcid = c("https://orcid.org/0000-0003-2247-4525", "https://orcid.org/0000-0003-2382-2333", "https://orcid.org/0000-0001-6894-8955", 
-"https://orcid.org/0000-0002-4834-5468", "https://orcid.org/0000-0003-1196-6735", "https://orcid.org/0000-0003-4826-9474"), author_position = c("first", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("School of Nursing, Walailak University, Nakhon Si Thammarat 80160, Thailand", "Department of Medical Clinical Sciences, School of Medicine, Walailak University, Nakhon Si Thammarat 80160, Thailand; Research Center in Tropical Pathobiology, Walailak University, Nakhon Si Thammarat 80160, Thailand", 
-"Department of Medical Sciences, School of Medicine, Walailak University, Nakhon Si Thammarat 80160, Thailand; Research Center in Tropical Pathobiology, Walailak University, Nakhon Si Thammarat 80160, Thailand", "Faculty of Nursing, Suratthani Rajabhat University, Surat Thani 84100, Thailand", "Department of Medicine, University of Arizona, Tucson, AZ 85724, USA", "Department of Medical Sciences, School of Medicine, Walailak University, Nakhon Si Thammarat 80160, Thailand; Research Center in Tropical Pathobiology, Walailak University, Nakhon Si Thammarat 80160, Thailand"
-), institution_id = c("https://openalex.org/I96916377", "https://openalex.org/I96916377", "https://openalex.org/I96916377", "https://openalex.org/I4210092041", "https://openalex.org/I138006243", "https://openalex.org/I96916377"), institution_display_name = c("Walailak University", "Walailak University", "Walailak University", "Suratthani Rajabhat University", "University of Arizona", "Walailak University"), institution_ror = c("https://ror.org/04b69g067", "https://ror.org/04b69g067", "https://ror.org/04b69g067", 
-"https://ror.org/00mmgx583", "https://ror.org/03m2x1q45", "https://ror.org/04b69g067"), institution_country_code = c("TH", "TH", "TH", "TH", "US", "TH"), institution_type = c("education", "education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I96916377", "https://openalex.org/I96916377", "https://openalex.org/I96916377", "https://openalex.org/I4210092041", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I96916377"
-))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(1) Background: An abnormal 50 g glucose challenge test (50 g GCT) during pregnancy, even without a diagnosis of gestational diabetes mellitus (GDM), may result in undesirable obstetric and neonatal outcomes. This study sought to evaluate the outcomes in pregnant women with abnormal 50 g GCT in secondary care hospitals in Thailand. (2) Methods: A total of 1129 cases of pregnant women with abnormal 50 g GCT results who delivered between January 2018 and December 2020 at Thasala, Sichon, and Thungsong hospitals were retrospectively reviewed and divided into three groups: abnormal 50 g GCT and normal 100 g oral OGTT (Group 1; n = 397 cases), abnormal 50 g GCT and one abnormal 100 g OGTT value (Group 2; n = 452 cases), and GDM (Group 3; n = 307 cases). (3) Results: Cesarean section rates in group 3 (61.9%) were statistically higher than those in groups 1 (43.6%) and 2 (49.4%) (p &lt; 0.001). In addition, the highest rate of birth asphyxia was found in group 2 (5.9%), which was significantly higher than that in Groups 1 (1.8%) and 3 (3.3%) (p = 0.007). (4) Conclusions: Pregnant women with abnormal 50 g GCTs without a diagnosis of GDM had undesirable maternal and neonatal outcomes, as well as those who had GDM, suggesting that healthcare providers should closely monitor them throughout pregnancy and the postpartum period.</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>International Journal of Environmental Research and Public Health</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>International Journal of Environmental Research and Public Health</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S15239247</t>
+          <t>https://doi.org/10.3390/ijerph20227038</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1660-4601</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37998269</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.3390/ijerph20227038</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://www.mdpi.com/1660-4601/20/22/7038/pdf?version=1699503184</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>7038</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>7038</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://www.mdpi.com/1660-4601/20/22/7038/pdf?version=1699503184</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4388534156</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4388534156", doi = "https://doi.org/10.3390/ijerph20227038", pmid = "https://pubmed.ncbi.nlm.nih.gov/37998269")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3390/ijerph20227038</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1608151369", "https://openalex.org/W1989816175", "https://openalex.org/W2044390893", "https://openalex.org/W2051908899", "https://openalex.org/W2058184727", "https://openalex.org/W2090701282", "https://openalex.org/W2101801880", "https://openalex.org/W2117898453", "https://openalex.org/W2179078200", "https://openalex.org/W2198316016", "https://openalex.org/W2255104527", "https://openalex.org/W2402036741", "https://openalex.org/W2416034181", "https://openalex.org/W2513400440", 
-"https://openalex.org/W2612637135", "https://openalex.org/W2616235706", "https://openalex.org/W2770189635", "https://openalex.org/W2770447727", "https://openalex.org/W2889795899", "https://openalex.org/W2892772471", "https://openalex.org/W2923297316", "https://openalex.org/W2938241176", "https://openalex.org/W2943433905", "https://openalex.org/W2965090460", "https://openalex.org/W2997662861", "https://openalex.org/W3008990494", "https://openalex.org/W3016169800", "https://openalex.org/W3045204123", 
-"https://openalex.org/W3096784552", "https://openalex.org/W4205324281", "https://openalex.org/W4235479662", "https://openalex.org/W4292337504")</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2355330163", "https://openalex.org/W2378964630", "https://openalex.org/W4321169775", "https://openalex.org/W2361514631", "https://openalex.org/W2428239609", "https://openalex.org/W2360648463", "https://openalex.org/W2186292959", "https://openalex.org/W4381465344", "https://openalex.org/W2367320695", "https://openalex.org/W2103243707")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Stephen Scholand_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Stephen Scholand_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Thomas Jefferson University, Philadelphia, USA; Auburn University, Auburn, USA; College of Medicine, University of Arizona, Tucson, USA; Rabies Free World, Meriden, USA; Thomas Jefferson University, Philadelphia, USA; Thomas Jefferson University, Philadelphia, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4366963257</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Glimpses into the Past: New World Contributions Towards Understanding the Basic Etiology, Pathobiology and Treatment of Rabies</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Fascinating life sciences</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-25052-1_2</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-25052-1_2</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>School of Nursing, Walailak University, Nakhon Si Thammarat 80160, Thailand; Department of Medical Clinical Sciences, School of Medicine, Walailak University, Nakhon Si Thammarat 80160, Thailand; Research Center in Tropical Pathobiology, Walailak University, Nakhon Si Thammarat 80160, Thailand; Department of Medical Sciences, School of Medicine, Walailak University, Nakhon Si Thammarat 80160, Thailand; Research Center in Tropical Pathobiology, Walailak University, Nakhon Si Thammarat 80160, Thailand; Faculty of Nursing, Suratthani Rajabhat University, Surat Thani 84100, Thailand; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Medical Sciences, School of Medicine, Walailak University, Nakhon Si Thammarat 80160, Thailand; Research Center in Tropical Pathobiology, Walailak University, Nakhon Si Thammarat 80160, Thailand</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388534156</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Maternal and Neonatal Outcomes of Pregnant Women with Abnormal 50 g Glucose Challenge Tests in Nakhon Si Thammarat, Thailand: A Retrospective Study</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-11-08</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>International Journal of Environmental Research and Public Health</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijerph20227038</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37998269</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijerph20227038</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
